--- a/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
+++ b/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\02.AutosarRteACG\GenModel\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E1C50-A427-4688-8564-44AFC48C4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CE1EE-F4B5-4A32-AD90-F2E4DA4778CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="3390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
+++ b/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\02.AutosarRteACG\GenModel\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CE1EE-F4B5-4A32-AD90-F2E4DA4778CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F32C7-25C2-48EB-9521-AD13A407CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,22 @@
   </si>
   <si>
     <t>(always FALSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FACDFB-656A-4023-A6C5-191FDD734933}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,15 +562,16 @@
     <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,25 +582,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -594,25 +614,28 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>-125</v>
       </c>
       <c r="G2">
         <v>-125</v>
       </c>
       <c r="H2">
+        <v>-125</v>
+      </c>
+      <c r="I2">
         <v>130</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -623,25 +646,28 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.125</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>8191.88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -652,21 +678,24 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -678,10 +707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE31215-C913-421C-9630-2F0F8671663A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="D2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,15 +718,16 @@
     <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,25 +738,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -737,21 +770,24 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
+++ b/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\02.AutosarRteACG\GenModel\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F32C7-25C2-48EB-9521-AD13A407CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B319E18-BF11-41B5-B1F9-2ED051100E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="1" r:id="rId1"/>
     <sheet name="2X" sheetId="3" r:id="rId2"/>
     <sheet name="4X" sheetId="2" r:id="rId3"/>
+    <sheet name="RxNormal&amp;RxTimeout" sheetId="6" r:id="rId4"/>
+    <sheet name="586" sheetId="5" r:id="rId5"/>
+    <sheet name="14FFBF17" sheetId="7" r:id="rId6"/>
+    <sheet name="6A2" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="221">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +156,598 @@
   </si>
   <si>
     <t>UB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal Index</t>
+  </si>
+  <si>
+    <t>IFLayer_Signal</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Invalid Status</t>
+  </si>
+  <si>
+    <t>Error Indicator Value</t>
+  </si>
+  <si>
+    <t>Receive Parameter Invalid Status</t>
+  </si>
+  <si>
+    <t>Receive Parameter</t>
+  </si>
+  <si>
+    <t>2-5-4 Requeset Paramter Select Flag</t>
+  </si>
+  <si>
+    <t>Receive Parameter Invalid Status 2</t>
+  </si>
+  <si>
+    <t>Receive Parameter 2</t>
+  </si>
+  <si>
+    <t>RxSel Parameter Invalid Status</t>
+  </si>
+  <si>
+    <t>RxSel Parameter</t>
+  </si>
+  <si>
+    <t>3-1-1 Requeset Paramter Select Flag</t>
+  </si>
+  <si>
+    <t>can_rqst_xxx</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_xxx</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_6A2_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_ANMSIG_VCM_CAN02</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_rx_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_rqst_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_anmsig_vcm_can02</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_SG_UB</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ALTITUDE</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_altitude</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ANTENNA_STAT</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_DIRECTION</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_direction</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_direction</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_direction</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_direction</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_HDOP</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_hdop</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LATITUDE</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_latitude</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LONGITUDE</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_longitude</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_time</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_time</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_TIME</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_time</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_time</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_time</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_time</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_VEH_SPEED</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>J1939/ISO</t>
+  </si>
+  <si>
+    <t>Timeout flag</t>
+  </si>
+  <si>
+    <t>SIGNALGROUP NAME</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_xxx</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_xxx</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_xxx</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_xxx</t>
+  </si>
+  <si>
+    <t>J1939</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>6A2</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_6A2</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_6A2</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_6A2</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_6A2</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_586</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_586</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_586</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_586</t>
+  </si>
+  <si>
+    <t>E.Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Indicator Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFLayer_Signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_14FFBF17_can_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>IFLayer_can_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>K_CAN_J1939_RX_DEFAULT_DRV_RETARDER_REQ</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_rqstcan_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqstcan_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>14FFBF17</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_14FFBF17</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_14FFBF17</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_14FFBF17</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_14FFBF17</t>
+  </si>
+  <si>
+    <t>Receive Parameter Invalid Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5-4 Requeset Paramter Select Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RxSel Parameter Invalid Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RxSel Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter Invalid Status 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RX_SEL_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RX_SEL_111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RQST_SEL_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_RQST_DRCT_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_RQST_DRCT_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RQST_SEL_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RQST_SEL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RX_SEL_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +755,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +771,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,19 +811,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{A10A756E-EFFC-447B-9704-3EAE3C13BFFD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,14 +1189,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39EB496-9CCF-4436-93A6-918F110CC9AC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -554,7 +1232,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE31215-C913-421C-9630-2F0F8671663A}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,4 +1473,1207 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818D8AA7-E31A-40B1-AB9C-5890A5A9D7E6}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>586</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209334D-EC62-4CE2-85E9-835AF9BAB52E}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="43.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5691.88</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>511.99200000000002</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>655.35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-210</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-210</v>
+      </c>
+      <c r="G7" s="3">
+        <v>219.49700000000001</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-210</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-210</v>
+      </c>
+      <c r="G8" s="3">
+        <v>219.49700000000001</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4294970000</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>255.99600000000001</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="W10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27FAF54-84E1-4DC5-936C-7AB3F89D1386}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="43.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="W2" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE0B127-BFFA-4667-B243-DEEAE830F8F0}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="43.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
+++ b/Code/02.AutosarRteACG/GenModel/Input_Data/Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\02.AutosarRteACG\GenModel\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B319E18-BF11-41B5-B1F9-2ED051100E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E3B3B-5C42-44AE-933F-7ED7BF5FB356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
+    <workbookView xWindow="6255" yWindow="2700" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{B409FE86-65E6-4857-A8E1-4A417655E59B}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="219">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,512 +243,505 @@
     <t>can_rx_anmsig_vcm_can02</t>
   </si>
   <si>
+    <t>SYCANC_COM2AP_586_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_SG_UB</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_rx_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_sg_ub</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ALTITUDE</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_altitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_altitude</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ANTENNA_STAT</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_rx_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_antenna_stat</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_DIRECTION</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_direction</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_direction</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_rx_gps_direction</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_direction</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_direction</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_HDOP</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_rx_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_hdop</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_hdop</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LATITUDE</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_latitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_latitude</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LONGITUDE</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_rx_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_longitude</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_longitude</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_time</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_time</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_TIME</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_time</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_time</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_rx_gps_time</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_time</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_time</t>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_586_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_VEH_SPEED</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_rx_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_rqst_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqst_gps_veh_speed</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>J1939/ISO</t>
+  </si>
+  <si>
+    <t>Timeout flag</t>
+  </si>
+  <si>
+    <t>SIGNALGROUP NAME</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_xxx</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_xxx</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_xxx</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_xxx</t>
+  </si>
+  <si>
+    <t>J1939</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>6A2</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_6A2</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_6A2</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_6A2</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_6A2</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_586</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_586</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_586</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_586</t>
+  </si>
+  <si>
+    <t>E.Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Indicator Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFLayer_Signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYCANC_COM2AP_14FFBF17_can_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>IFLayer_can_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>K_CAN_J1939_RX_DEFAULT_DRV_RETARDER_REQ</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_invalid_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_rqstcan_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>can_invalid_can_rqstcan_j1939_rx_drv_retarder_req</t>
+  </si>
+  <si>
+    <t>14FFBF17</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_cmplt_14FFBF17</t>
+  </si>
+  <si>
+    <t>IFLayer_rx_timeout_14FFBF17</t>
+  </si>
+  <si>
+    <t>can_gmlan_cmplt_14FFBF17</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_timeout_14FFBF17</t>
+  </si>
+  <si>
+    <t>Receive Parameter Invalid Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5-4 Requeset Paramter Select Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RxSel Parameter Invalid Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RxSel Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter Invalid Status 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RX_SEL_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RX_SEL_111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RQST_SEL_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_RQST_DRCT_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_RQST_DRCT_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RQST_SEL_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RQST_SEL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_RX_SEL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>can_rqst_anmsig_vcm_can02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>can_invalid_can_rqst_anmsig_vcm_can02</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_SG_UB</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>can_rx_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_sg_ub</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_altitude</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_altitude</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ALTITUDE</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_altitude</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_altitude</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_altitude</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_altitude</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_altitude</t>
-  </si>
-  <si>
-    <t>can_rx_gps_altitude</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_altitude</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_altitude</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_ANTENNA_STAT</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>can_rx_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_antenna_stat</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_direction</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_direction</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_DIRECTION</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_direction</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_direction</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_direction</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_direction</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_direction</t>
-  </si>
-  <si>
-    <t>can_rx_gps_direction</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_direction</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_direction</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_hdop</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_hdop</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_HDOP</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_hdop</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_hdop</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_hdop</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_hdop</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_hdop</t>
-  </si>
-  <si>
-    <t>can_rx_gps_hdop</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_hdop</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_hdop</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_latitude</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_latitude</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LATITUDE</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_latitude</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_latitude</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_latitude</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_latitude</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_latitude</t>
-  </si>
-  <si>
-    <t>can_rx_gps_latitude</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_latitude</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_latitude</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_longitude</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_longitude</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_LONGITUDE</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_longitude</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_longitude</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_longitude</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_longitude</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_longitude</t>
-  </si>
-  <si>
-    <t>can_rx_gps_longitude</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_longitude</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_longitude</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_time</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_time</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_TIME</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_time</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_time</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_time</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_time</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_time</t>
-  </si>
-  <si>
-    <t>can_rx_gps_time</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_time</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_time</t>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_586_rx_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_RX_DEFAULT_GPS_VEH_SPEED</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>can_rx_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>can_rqst_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqst_gps_veh_speed</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>J1939/ISO</t>
-  </si>
-  <si>
-    <t>Timeout flag</t>
-  </si>
-  <si>
-    <t>SIGNALGROUP NAME</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_cmplt_xxx</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_timeout_xxx</t>
-  </si>
-  <si>
-    <t>can_gmlan_cmplt_xxx</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_timeout_xxx</t>
-  </si>
-  <si>
-    <t>J1939</t>
-  </si>
-  <si>
-    <t>ISO</t>
-  </si>
-  <si>
-    <t>6A2</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_cmplt_6A2</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_timeout_6A2</t>
-  </si>
-  <si>
-    <t>can_gmlan_cmplt_6A2</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_timeout_6A2</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_cmplt_586</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_timeout_586</t>
-  </si>
-  <si>
-    <t>can_gmlan_cmplt_586</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_timeout_586</t>
-  </si>
-  <si>
-    <t>E.Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrameID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signal Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error Indicator Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFLayer_Signal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYCANC_COM2AP_14FFBF17_can_j1939_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>IFLayer_can_j1939_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>K_CAN_J1939_RX_DEFAULT_DRV_RETARDER_REQ</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_invalid_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>can_j1939_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_invalid_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>can_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>can_rqstcan_j1939_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>can_invalid_can_rqstcan_j1939_rx_drv_retarder_req</t>
-  </si>
-  <si>
-    <t>14FFBF17</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_cmplt_14FFBF17</t>
-  </si>
-  <si>
-    <t>IFLayer_rx_timeout_14FFBF17</t>
-  </si>
-  <si>
-    <t>can_gmlan_cmplt_14FFBF17</t>
-  </si>
-  <si>
-    <t>can_gmlan_rx_timeout_14FFBF17</t>
-  </si>
-  <si>
-    <t>Receive Parameter Invalid Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive Parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5-4 Requeset Paramter Select Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive Parameter 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RxSel Parameter Invalid Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RxSel Parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive Parameter Invalid Status 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_RX_SEL_XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_RX_SEL_111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_RQST_SEL_XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_RQST_DRCT_XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_RQST_DRCT_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_RQST_SEL_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_RQST_SEL_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_RX_SEL_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -835,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1199,10 +1193,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1499,31 +1493,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1534,23 +1528,23 @@
         <v>586</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1558,26 +1552,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,26 +1579,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1618,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209334D-EC62-4CE2-85E9-835AF9BAB52E}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1678,37 +1672,37 @@
         <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>48</v>
@@ -1722,455 +1716,455 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>256</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="L2" s="3">
         <v>1</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="R2" s="3">
         <v>1</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.125</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5691.88</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>256</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R3" s="3">
         <v>1</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>256</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="R4" s="3">
         <v>1</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7.8125E-3</v>
+        <v>94</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>511.99200000000002</v>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>65535</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="R5" s="3">
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.01</v>
+      <c r="D6" s="6">
+        <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>655.35</v>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>65535</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="L6" s="3">
         <v>2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="R6" s="3">
         <v>2</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="3">
-        <v>9.9999999999999995E-8</v>
+        <v>116</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>-210</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-210</v>
-      </c>
-      <c r="G7" s="3">
-        <v>219.49700000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>65535</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="L7" s="3">
         <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="R7" s="3">
         <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9.9999999999999995E-8</v>
+        <v>127</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>-210</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-210</v>
-      </c>
-      <c r="G8" s="3">
-        <v>219.49700000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>65535</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="R8" s="3">
         <v>3</v>
@@ -2178,62 +2172,62 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3">
+        <v>138</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4294970000</v>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10000000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="R9" s="3">
         <v>3</v>
@@ -2241,62 +2235,62 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.90625E-3</v>
+        <v>149</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>255.99600000000001</v>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10000000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="R10" s="3">
         <v>3</v>
@@ -2304,10 +2298,10 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W10" s="3"/>
     </row>
@@ -2322,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27FAF54-84E1-4DC5-936C-7AB3F89D1386}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2390,7 +2384,7 @@
         <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>43</v>
@@ -2399,7 +2393,7 @@
         <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>46</v>
@@ -2408,10 +2402,10 @@
         <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>48</v>
@@ -2425,10 +2419,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
@@ -2449,44 +2443,44 @@
         <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L2" s="5">
         <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="W2" s="5"/>
     </row>
@@ -2501,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE0B127-BFFA-4667-B243-DEEAE830F8F0}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2513,7 +2507,7 @@
     <col min="4" max="4" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.25" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.875" style="2" bestFit="1" customWidth="1"/>
@@ -2534,10 +2528,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
@@ -2558,7 +2552,7 @@
         <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>40</v>
@@ -2570,7 +2564,7 @@
         <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>43</v>
@@ -2588,10 +2582,10 @@
         <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>48</v>
@@ -2611,7 +2605,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2623,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>65535</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>24</v>
@@ -2641,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>56</v>
@@ -2659,16 +2653,16 @@
         <v>2</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>61</v>
+      <c r="V2" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="W2" s="3"/>
     </row>
